--- a/biology/Zoologie/Garrulaxe_hoamy/Garrulaxe_hoamy.xlsx
+++ b/biology/Zoologie/Garrulaxe_hoamy/Garrulaxe_hoamy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garrulax canorus
 Le Garrulaxe hoamy (Garrulax canorus, synonyme Leucodioptron canorum) est une espèce de passereau de la famille des Leiothrichidae. Son nom vient du chinois 画眉 (pinyin huà méi), mot-à-mot « sourcils peints », et cet oiseau chanteur très apprécié des Chinois.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 21 à 24 cm pour une masse de 49 à 75 g.
 </t>
@@ -543,7 +557,9 @@
           <t>Sous-espèces et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Garrulaxe hoamy est représenté par deux sous-espèces :
 canorus du sud-est de la Chine, de l'est du Laos et du Vietnam ;
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce consomme essentiellement des insectes : œufs d'Acrididae et fourmis. Elle se nourrit aussi de fruits et de graines, et parfois de grains cultivés comme le maïs.
 </t>
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se reproduit de mars à août, période pendant laquelle la femelle effectue plusieurs pontes. Le nid est une large coupe. La ponte comporte de deux à cinq œufs mais le plus souvent trois ou quatre. Ceux-ci sont bleu pâle à bleu vert sombre. Occasionnellement, ils peuvent être parsemés de grandes taches blanches. L'incubation assurée essentiellement par la femelle dure 12 jours.
 </t>
